--- a/resource/config_excel_example/enum.xlsx
+++ b/resource/config_excel_example/enum.xlsx
@@ -225,6 +225,63 @@
     <x:col min="3" max="3" width="20"/>
     <x:col min="4" max="4" width="20"/>
   </x:cols>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row s="5" customFormat="1">
+      <x:c s="5" t="str">
+        <x:v>QualificationType</x:v>
+      </x:c>
+      <x:c s="5" t="str">
+        <x:v>优秀</x:v>
+      </x:c>
+      <x:c s="5" t="str">
+        <x:v>GREEN</x:v>
+      </x:c>
+      <x:c s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>精良</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>BLUE</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>史诗</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>PURPLE</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>传说</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>ORANGE</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
 </x:worksheet>
 </file>